--- a/target/classes/data/TF_TestData.xlsx
+++ b/target/classes/data/TF_TestData.xlsx
@@ -1,16 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{AB8CEE10-FBEC-49BC-B2BA-FA0EEEBAF435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="7296" activeTab="1"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="14832" windowHeight="10644" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginInfo" sheetId="1" r:id="rId1"/>
     <sheet name="AddContactInfo" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:O15"/>
 </workbook>
 </file>
 
@@ -86,7 +88,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -234,6 +236,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -269,6 +288,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -444,7 +480,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -475,7 +511,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
@@ -483,11 +519,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
